--- a/data/panelapp/au/Ataxia_Superpanel.xlsx
+++ b/data/panelapp/au/Ataxia_Superpanel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E328"/>
+  <dimension ref="A1:F331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606023</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606035</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606038</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606041</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606044</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606046</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606049</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606052</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606054</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606057</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606059</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606062</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606065</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606067</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606070</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606072</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606075</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606078</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606081</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606083</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606086</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606089</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606091</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606094</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606097</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606100</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606103</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606105</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606108</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606110</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606113</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606116</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606119</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606122</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606126</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606129</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606132</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606135</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606137</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606140</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606143</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606146</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606149</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606152</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606154</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606157</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606159</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606162</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606165</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606167</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606170</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606173</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606175</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606178</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606181</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606183</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606186</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606188</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606191</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606194</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606196</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606199</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606202</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606204</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606208</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606210</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606213</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606216</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606218</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606221</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606224</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606226</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606229</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606231</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606234</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606236</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606241</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606244</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606247</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606250</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606252</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606255</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606258</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606260</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606263</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606265</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606268</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606270</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606273</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606276</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606278</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606281</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606285</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606288</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606290</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606293</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606296</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606298</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606301</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606303</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606306</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606309</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606311</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606314</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606316</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606319</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606321</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606324</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606329</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606332</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606334</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606337</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606339</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606342</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606345</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606347</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606350</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606352</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606355</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606357</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606360</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606363</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606365</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606368</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3579,6 +4204,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606370</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3604,6 +4234,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606373</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3629,6 +4264,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606376</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3654,6 +4294,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606378</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3679,6 +4324,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606383</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3704,6 +4354,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606386</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3729,6 +4384,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606389</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3754,6 +4414,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606391</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3779,6 +4444,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606394</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3804,6 +4474,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606397</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3829,6 +4504,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606399</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3854,6 +4534,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606402</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3879,6 +4564,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606404</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3904,6 +4594,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606407</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3929,6 +4624,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606410</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3954,6 +4654,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606412</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3979,6 +4684,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606415</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4004,6 +4714,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606417</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4029,6 +4744,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606420</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4054,6 +4774,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606422</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4079,6 +4804,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606425</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4104,6 +4834,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606428</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4129,6 +4864,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606430</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4154,6 +4894,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606433</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4179,6 +4924,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606436</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4204,6 +4954,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606438</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4229,6 +4984,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606441</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4254,6 +5014,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606443</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4279,6 +5044,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606446</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4304,6 +5074,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606448</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4329,6 +5104,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606451</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4354,6 +5134,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606454</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4379,6 +5164,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606456</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4404,6 +5194,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606459</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4429,6 +5224,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606462</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4454,6 +5254,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606464</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4479,6 +5284,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606467</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4504,6 +5314,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606470</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4529,6 +5344,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606472</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4554,6 +5374,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606475</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4579,6 +5404,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606478</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4604,6 +5434,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606480</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4629,6 +5464,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606483</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4654,6 +5494,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606485</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4679,6 +5524,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606488</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4704,6 +5554,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606491</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4729,6 +5584,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606493</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4754,6 +5614,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606496</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4779,6 +5644,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606500</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4804,6 +5674,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606503</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4829,6 +5704,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606506</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4854,6 +5734,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606508</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4879,6 +5764,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606511</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4904,6 +5794,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606513</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4929,6 +5824,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606516</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4954,6 +5854,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606519</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4979,6 +5884,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606521</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5004,6 +5914,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606524</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5029,6 +5944,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606527</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5054,6 +5974,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606529</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5079,6 +6004,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606532</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5104,6 +6034,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606534</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5129,6 +6064,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606537</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5154,6 +6094,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606540</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5179,6 +6124,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606542</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5204,6 +6154,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606545</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5229,6 +6184,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606547</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5254,6 +6214,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606550</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5279,6 +6244,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606552</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5304,6 +6274,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606555</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5329,6 +6304,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606558</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5354,6 +6334,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606561</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5379,6 +6364,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606563</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5404,6 +6394,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606566</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5429,6 +6424,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606568</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5454,6 +6454,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606571</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5479,6 +6484,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606574</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5504,6 +6514,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606576</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5529,6 +6544,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606579</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5554,6 +6574,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606582</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5579,6 +6604,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606584</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5604,6 +6634,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606587</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5629,6 +6664,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606590</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5654,6 +6694,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606592</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5679,6 +6724,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606595</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5704,6 +6754,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606598</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5729,6 +6784,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606600</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5754,6 +6814,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606603</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5779,6 +6844,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606605</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5804,6 +6874,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606608</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5829,6 +6904,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606611</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5854,6 +6934,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606613</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5879,6 +6964,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606616</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5904,6 +6994,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606618</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5929,6 +7024,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606621</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5954,6 +7054,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606623</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5979,6 +7084,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606626</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6004,6 +7114,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606629</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6029,6 +7144,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606631</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6054,6 +7174,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606634</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6079,6 +7204,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606637</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6104,6 +7234,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606639</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6129,6 +7264,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606642</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6154,6 +7294,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606644</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6179,6 +7324,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606647</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6204,6 +7354,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606650</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6229,6 +7384,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606653</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6254,6 +7414,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606655</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -6279,6 +7444,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606659</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -6304,6 +7474,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606663</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -6329,6 +7504,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606665</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -6354,6 +7534,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606668</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -6379,6 +7564,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606670</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -6404,6 +7594,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606673</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -6429,6 +7624,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606675</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -6454,6 +7654,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606678</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6479,6 +7684,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606681</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6504,6 +7714,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606683</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6529,6 +7744,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606686</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -6554,6 +7774,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606688</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6579,6 +7804,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606691</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6604,6 +7834,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606693</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6629,6 +7864,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606696</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6654,6 +7894,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606699</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6679,6 +7924,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606701</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6704,6 +7954,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606704</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6729,6 +7984,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606706</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6754,6 +8014,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606709</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6779,6 +8044,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606712</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -6804,6 +8074,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606714</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -6829,6 +8104,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606717</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -6854,6 +8134,11 @@
           <t>Ataxia_Superpanel</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606719</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -6861,12 +8146,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>SDHA</t>
+          <t>PRPS1</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>succinate dehydrogenase complex flavoprotein subunit A</t>
+          <t>phosphoribosyl pyrophosphate synthetase 1</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6877,6 +8162,11 @@
       <c r="E258" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606722</t>
         </is>
       </c>
     </row>
@@ -6886,12 +8176,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>SLC9A1</t>
+          <t>RFXANK</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>solute carrier family 9 member A1</t>
+          <t>regulatory factor X associated ankyrin containing protein</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6902,6 +8192,11 @@
       <c r="E259" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606725</t>
         </is>
       </c>
     </row>
@@ -6911,12 +8206,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>SYNGAP1</t>
+          <t>SDHA</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>synaptic Ras GTPase activating protein 1</t>
+          <t>succinate dehydrogenase complex flavoprotein subunit A</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6927,6 +8222,11 @@
       <c r="E260" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606727</t>
         </is>
       </c>
     </row>
@@ -6936,12 +8236,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TMEM138</t>
+          <t>SLC9A1</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>transmembrane protein 138</t>
+          <t>solute carrier family 9 member A1</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6952,6 +8252,11 @@
       <c r="E261" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606730</t>
         </is>
       </c>
     </row>
@@ -6961,12 +8266,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TMEM231</t>
+          <t>SYNGAP1</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>transmembrane protein 231</t>
+          <t>synaptic Ras GTPase activating protein 1</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6977,6 +8282,11 @@
       <c r="E262" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606733</t>
         </is>
       </c>
     </row>
@@ -6986,12 +8296,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TRPC3</t>
+          <t>TMEM138</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>transient receptor potential cation channel subfamily C member 3</t>
+          <t>transmembrane protein 138</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7002,6 +8312,11 @@
       <c r="E263" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606735</t>
         </is>
       </c>
     </row>
@@ -7011,12 +8326,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>UBA5</t>
+          <t>TMEM231</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>ubiquitin like modifier activating enzyme 5</t>
+          <t>transmembrane protein 231</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7027,6 +8342,11 @@
       <c r="E264" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606738</t>
         </is>
       </c>
     </row>
@@ -7036,12 +8356,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>UBR4</t>
+          <t>TRPC3</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>ubiquitin protein ligase E3 component n-recognin 4</t>
+          <t>transient receptor potential cation channel subfamily C member 3</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7052,6 +8372,11 @@
       <c r="E265" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606741</t>
         </is>
       </c>
     </row>
@@ -7061,12 +8386,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>UBR4</t>
+          <t>UBA5</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>ubiquitin protein ligase E3 component n-recognin 4</t>
+          <t>ubiquitin like modifier activating enzyme 5</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7077,6 +8402,11 @@
       <c r="E266" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606743</t>
         </is>
       </c>
     </row>
@@ -7086,12 +8416,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>VAMP1</t>
+          <t>UBR4</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>vesicle associated membrane protein 1</t>
+          <t>ubiquitin protein ligase E3 component n-recognin 4</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7102,6 +8432,11 @@
       <c r="E267" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606746</t>
         </is>
       </c>
     </row>
@@ -7111,12 +8446,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>VRK1</t>
+          <t>UBR4</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>vaccinia related kinase 1</t>
+          <t>ubiquitin protein ligase E3 component n-recognin 4</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7127,6 +8462,11 @@
       <c r="E268" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606748</t>
         </is>
       </c>
     </row>
@@ -7136,12 +8476,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ZFYVE26</t>
+          <t>VAMP1</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>zinc finger FYVE-type containing 26</t>
+          <t>vesicle associated membrane protein 1</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7152,6 +8492,11 @@
       <c r="E269" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606751</t>
         </is>
       </c>
     </row>
@@ -7161,22 +8506,27 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>AMPD2</t>
+          <t>VRK1</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>adenosine monophosphate deaminase 2</t>
+          <t>vaccinia related kinase 1</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606754</t>
         </is>
       </c>
     </row>
@@ -7186,22 +8536,27 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ARL6</t>
+          <t>ZFYVE26</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>ADP ribosylation factor like GTPase 6</t>
+          <t>zinc finger FYVE-type containing 26</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606757</t>
         </is>
       </c>
     </row>
@@ -7211,12 +8566,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ARMC9</t>
+          <t>AMPD2</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>armadillo repeat containing 9</t>
+          <t>adenosine monophosphate deaminase 2</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7227,6 +8582,11 @@
       <c r="E272" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606759</t>
         </is>
       </c>
     </row>
@@ -7236,12 +8596,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ATP1A2</t>
+          <t>ARL6</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>ATPase Na+/K+ transporting subunit alpha 2</t>
+          <t>ADP ribosylation factor like GTPase 6</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7252,6 +8612,11 @@
       <c r="E273" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606762</t>
         </is>
       </c>
     </row>
@@ -7261,12 +8626,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ATP7B</t>
+          <t>ARMC9</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>ATPase copper transporting beta</t>
+          <t>armadillo repeat containing 9</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -7277,6 +8642,11 @@
       <c r="E274" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606764</t>
         </is>
       </c>
     </row>
@@ -7286,12 +8656,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>BBS10</t>
+          <t>ATP1A2</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Bardet-Biedl syndrome 10</t>
+          <t>ATPase Na+/K+ transporting subunit alpha 2</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7302,6 +8672,11 @@
       <c r="E275" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606767</t>
         </is>
       </c>
     </row>
@@ -7311,12 +8686,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>BBS12</t>
+          <t>ATP7B</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Bardet-Biedl syndrome 12</t>
+          <t>ATPase copper transporting beta</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7327,6 +8702,11 @@
       <c r="E276" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606770</t>
         </is>
       </c>
     </row>
@@ -7336,12 +8716,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>BBS2</t>
+          <t>BBS10</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Bardet-Biedl syndrome 2</t>
+          <t>Bardet-Biedl syndrome 10</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -7352,6 +8732,11 @@
       <c r="E277" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606772</t>
         </is>
       </c>
     </row>
@@ -7361,12 +8746,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>BBS4</t>
+          <t>BBS12</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Bardet-Biedl syndrome 4</t>
+          <t>Bardet-Biedl syndrome 12</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -7377,6 +8762,11 @@
       <c r="E278" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606775</t>
         </is>
       </c>
     </row>
@@ -7386,12 +8776,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>BBS5</t>
+          <t>BBS2</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Bardet-Biedl syndrome 5</t>
+          <t>Bardet-Biedl syndrome 2</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -7402,6 +8792,11 @@
       <c r="E279" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606777</t>
         </is>
       </c>
     </row>
@@ -7411,12 +8806,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>BBS7</t>
+          <t>BBS4</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Bardet-Biedl syndrome 7</t>
+          <t>Bardet-Biedl syndrome 4</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -7427,6 +8822,11 @@
       <c r="E280" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606780</t>
         </is>
       </c>
     </row>
@@ -7436,12 +8836,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>BBS9</t>
+          <t>BBS5</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Bardet-Biedl syndrome 9</t>
+          <t>Bardet-Biedl syndrome 5</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -7452,6 +8852,11 @@
       <c r="E281" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606782</t>
         </is>
       </c>
     </row>
@@ -7461,12 +8866,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>CACNB4</t>
+          <t>BBS7</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>calcium voltage-gated channel auxiliary subunit beta 4</t>
+          <t>Bardet-Biedl syndrome 7</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -7477,6 +8882,11 @@
       <c r="E282" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606785</t>
         </is>
       </c>
     </row>
@@ -7486,12 +8896,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>CACNB4</t>
+          <t>BBS9</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>calcium voltage-gated channel auxiliary subunit beta 4</t>
+          <t>Bardet-Biedl syndrome 9</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -7502,6 +8912,11 @@
       <c r="E283" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606788</t>
         </is>
       </c>
     </row>
@@ -7511,12 +8926,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>CCDC28B</t>
+          <t>CACNB4</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>coiled-coil domain containing 28B</t>
+          <t>calcium voltage-gated channel auxiliary subunit beta 4</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -7527,6 +8942,11 @@
       <c r="E284" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606790</t>
         </is>
       </c>
     </row>
@@ -7536,12 +8956,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>CHMP1A</t>
+          <t>CACNB4</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>charged multivesicular body protein 1A</t>
+          <t>calcium voltage-gated channel auxiliary subunit beta 4</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -7552,6 +8972,11 @@
       <c r="E285" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606793</t>
         </is>
       </c>
     </row>
@@ -7561,12 +8986,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>COQ5</t>
+          <t>CCDC28B</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>coenzyme Q5, methyltransferase</t>
+          <t>coiled-coil domain containing 28B</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -7577,6 +9002,11 @@
       <c r="E286" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606795</t>
         </is>
       </c>
     </row>
@@ -7586,12 +9016,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>CYP2U1</t>
+          <t>CHMP1A</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 2 subfamily U member 1</t>
+          <t>charged multivesicular body protein 1A</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -7602,6 +9032,11 @@
       <c r="E287" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606798</t>
         </is>
       </c>
     </row>
@@ -7611,12 +9046,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>EEF2</t>
+          <t>COQ5</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>eukaryotic translation elongation factor 2</t>
+          <t>coenzyme Q5, methyltransferase</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -7627,6 +9062,11 @@
       <c r="E288" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606801</t>
         </is>
       </c>
     </row>
@@ -7636,12 +9076,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ELOVL1</t>
+          <t>CYP2U1</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>ELOVL fatty acid elongase 1</t>
+          <t>cytochrome P450 family 2 subfamily U member 1</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -7652,6 +9092,11 @@
       <c r="E289" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606803</t>
         </is>
       </c>
     </row>
@@ -7661,12 +9106,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>EXOSC3</t>
+          <t>DAB1</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>exosome component 3</t>
+          <t>DAB1, reelin adaptor protein</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -7677,6 +9122,11 @@
       <c r="E290" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606806</t>
         </is>
       </c>
     </row>
@@ -7686,12 +9136,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FDXR</t>
+          <t>EEF2</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>ferredoxin reductase</t>
+          <t>eukaryotic translation elongation factor 2</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -7702,6 +9152,11 @@
       <c r="E291" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606808</t>
         </is>
       </c>
     </row>
@@ -7711,12 +9166,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>HARS2</t>
+          <t>ELOVL1</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>histidyl-tRNA synthetase 2, mitochondrial</t>
+          <t>ELOVL fatty acid elongase 1</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -7727,6 +9182,11 @@
       <c r="E292" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606811</t>
         </is>
       </c>
     </row>
@@ -7736,12 +9196,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>IFRD1</t>
+          <t>EXOSC3</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>interferon related developmental regulator 1</t>
+          <t>exosome component 3</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -7752,6 +9212,11 @@
       <c r="E293" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606814</t>
         </is>
       </c>
     </row>
@@ -7761,12 +9226,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>MME</t>
+          <t>FDXR</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>membrane metalloendopeptidase</t>
+          <t>ferredoxin reductase</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -7777,6 +9242,11 @@
       <c r="E294" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606816</t>
         </is>
       </c>
     </row>
@@ -7786,12 +9256,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NOL3</t>
+          <t>HARS2</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>nucleolar protein 3</t>
+          <t>histidyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -7802,6 +9272,11 @@
       <c r="E295" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606819</t>
         </is>
       </c>
     </row>
@@ -7811,12 +9286,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>PCDH12</t>
+          <t>IFRD1</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>protocadherin 12</t>
+          <t>interferon related developmental regulator 1</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -7827,6 +9302,11 @@
       <c r="E296" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606821</t>
         </is>
       </c>
     </row>
@@ -7836,12 +9316,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>PCYT2</t>
+          <t>MME</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>phosphate cytidylyltransferase 2, ethanolamine</t>
+          <t>membrane metalloendopeptidase</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -7852,6 +9332,11 @@
       <c r="E297" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606824</t>
         </is>
       </c>
     </row>
@@ -7861,12 +9346,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>RARS2</t>
+          <t>NOL3</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>arginyl-tRNA synthetase 2, mitochondrial</t>
+          <t>nucleolar protein 3</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -7877,6 +9362,11 @@
       <c r="E298" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606826</t>
         </is>
       </c>
     </row>
@@ -7886,12 +9376,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>SAR1B</t>
+          <t>PCDH12</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>secretion associated Ras related GTPase 1B</t>
+          <t>protocadherin 12</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -7902,6 +9392,11 @@
       <c r="E299" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606829</t>
         </is>
       </c>
     </row>
@@ -7911,12 +9406,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>SEPSECS</t>
+          <t>PCYT2</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Sep (O-phosphoserine) tRNA:Sec (selenocysteine) tRNA synthase</t>
+          <t>phosphate cytidylyltransferase 2, ethanolamine</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -7927,6 +9422,11 @@
       <c r="E300" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606832</t>
         </is>
       </c>
     </row>
@@ -7936,12 +9436,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>SYT14</t>
+          <t>RARS2</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>synaptotagmin 14</t>
+          <t>arginyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -7952,6 +9452,11 @@
       <c r="E301" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606834</t>
         </is>
       </c>
     </row>
@@ -7961,12 +9466,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TGM6</t>
+          <t>SAR1B</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>transglutaminase 6</t>
+          <t>secretion associated Ras related GTPase 1B</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -7977,6 +9482,11 @@
       <c r="E302" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606837</t>
         </is>
       </c>
     </row>
@@ -7986,12 +9496,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TRIM32</t>
+          <t>SEPSECS</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>tripartite motif containing 32</t>
+          <t>Sep (O-phosphoserine) tRNA:Sec (selenocysteine) tRNA synthase</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -8002,6 +9512,11 @@
       <c r="E303" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606839</t>
         </is>
       </c>
     </row>
@@ -8011,12 +9526,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TSEN2</t>
+          <t>SYT14</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>tRNA splicing endonuclease subunit 2</t>
+          <t>synaptotagmin 14</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8027,6 +9542,11 @@
       <c r="E304" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606842</t>
         </is>
       </c>
     </row>
@@ -8036,12 +9556,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TSEN34</t>
+          <t>TGM6</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>tRNA splicing endonuclease subunit 34</t>
+          <t>transglutaminase 6</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -8052,6 +9572,11 @@
       <c r="E305" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606845</t>
         </is>
       </c>
     </row>
@@ -8061,12 +9586,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TSEN54</t>
+          <t>TRIM32</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>tRNA splicing endonuclease subunit 54</t>
+          <t>tripartite motif containing 32</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -8077,6 +9602,11 @@
       <c r="E306" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606847</t>
         </is>
       </c>
     </row>
@@ -8086,12 +9616,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TTC8</t>
+          <t>TSEN2</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>tetratricopeptide repeat domain 8</t>
+          <t>tRNA splicing endonuclease subunit 2</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8102,6 +9632,11 @@
       <c r="E307" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606850</t>
         </is>
       </c>
     </row>
@@ -8111,12 +9646,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TTI1</t>
+          <t>TSEN34</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>TELO2 interacting protein 1</t>
+          <t>tRNA splicing endonuclease subunit 34</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8127,6 +9662,11 @@
       <c r="E308" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606852</t>
         </is>
       </c>
     </row>
@@ -8136,12 +9676,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TUBA1A</t>
+          <t>TSEN54</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>tubulin alpha 1a</t>
+          <t>tRNA splicing endonuclease subunit 54</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -8152,6 +9692,11 @@
       <c r="E309" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606855</t>
         </is>
       </c>
     </row>
@@ -8161,12 +9706,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TUBB2A</t>
+          <t>TTC8</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>tubulin beta 2A class IIa</t>
+          <t>tetratricopeptide repeat domain 8</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8177,6 +9722,11 @@
       <c r="E310" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606859</t>
         </is>
       </c>
     </row>
@@ -8186,12 +9736,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>VWA3B</t>
+          <t>TTI1</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>von Willebrand factor A domain containing 3B</t>
+          <t>TELO2 interacting protein 1</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -8202,6 +9752,11 @@
       <c r="E311" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606862</t>
         </is>
       </c>
     </row>
@@ -8211,12 +9766,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>WDPCP</t>
+          <t>TUBA1A</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>WD repeat containing planar cell polarity effector</t>
+          <t>tubulin alpha 1a</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -8227,6 +9782,11 @@
       <c r="E312" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606865</t>
         </is>
       </c>
     </row>
@@ -8236,12 +9796,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ZNF423</t>
+          <t>TUBB2A</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>zinc finger protein 423</t>
+          <t>tubulin beta 2A class IIa</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -8252,6 +9812,11 @@
       <c r="E313" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606868</t>
         </is>
       </c>
     </row>
@@ -8261,12 +9826,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>ZNF592</t>
+          <t>VWA3B</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>zinc finger protein 592</t>
+          <t>von Willebrand factor A domain containing 3B</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -8277,6 +9842,11 @@
       <c r="E314" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606871</t>
         </is>
       </c>
     </row>
@@ -8286,22 +9856,27 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ATN1</t>
+          <t>WDPCP</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>atrophin 1</t>
+          <t>WD repeat containing planar cell polarity effector</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606873</t>
         </is>
       </c>
     </row>
@@ -8311,22 +9886,27 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ATXN1</t>
+          <t>ZNF423</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>ataxin 1</t>
+          <t>zinc finger protein 423</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606876</t>
         </is>
       </c>
     </row>
@@ -8336,22 +9916,27 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>ATXN10</t>
+          <t>ZNF592</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>ataxin 10</t>
+          <t>zinc finger protein 592</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606879</t>
         </is>
       </c>
     </row>
@@ -8361,12 +9946,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ATXN2</t>
+          <t>ATN1</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>ataxin 2</t>
+          <t>atrophin 1</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -8377,6 +9962,11 @@
       <c r="E318" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606881</t>
         </is>
       </c>
     </row>
@@ -8386,12 +9976,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>ATXN3</t>
+          <t>ATXN1</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>ataxin 3</t>
+          <t>ataxin 1</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -8402,6 +9992,11 @@
       <c r="E319" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606884</t>
         </is>
       </c>
     </row>
@@ -8411,12 +10006,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>ATXN7</t>
+          <t>ATXN10</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>ataxin 7</t>
+          <t>ataxin 10</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -8427,6 +10022,11 @@
       <c r="E320" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606887</t>
         </is>
       </c>
     </row>
@@ -8436,12 +10036,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>ATXN8</t>
+          <t>ATXN2</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>ataxin 8</t>
+          <t>ataxin 2</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -8452,6 +10052,11 @@
       <c r="E321" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606889</t>
         </is>
       </c>
     </row>
@@ -8461,12 +10066,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>BEAN1</t>
+          <t>ATXN3</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>brain expressed associated with NEDD4 1</t>
+          <t>ataxin 3</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -8477,6 +10082,11 @@
       <c r="E322" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606892</t>
         </is>
       </c>
     </row>
@@ -8486,12 +10096,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>DAB1</t>
+          <t>ATXN7</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>DAB1, reelin adaptor protein</t>
+          <t>ataxin 7</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -8502,6 +10112,11 @@
       <c r="E323" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606894</t>
         </is>
       </c>
     </row>
@@ -8511,12 +10126,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>FMR1</t>
+          <t>ATXN8</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>fragile X mental retardation 1</t>
+          <t>ataxin 8</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -8527,6 +10142,11 @@
       <c r="E324" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606897</t>
         </is>
       </c>
     </row>
@@ -8536,12 +10156,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>NOP56</t>
+          <t>BEAN1</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>NOP56 ribonucleoprotein</t>
+          <t>brain expressed associated with NEDD4 1</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -8552,6 +10172,11 @@
       <c r="E325" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606899</t>
         </is>
       </c>
     </row>
@@ -8561,12 +10186,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>PPP2R2B</t>
+          <t>DAB1</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>protein phosphatase 2 regulatory subunit Bbeta</t>
+          <t>DAB1, reelin adaptor protein</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -8577,6 +10202,11 @@
       <c r="E326" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606902</t>
         </is>
       </c>
     </row>
@@ -8586,12 +10216,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>RFC1</t>
+          <t>FMR1</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>replication factor C subunit 1</t>
+          <t>fragile X mental retardation 1</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -8602,6 +10232,11 @@
       <c r="E327" t="inlineStr">
         <is>
           <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606904</t>
         </is>
       </c>
     </row>
@@ -8611,22 +10246,117 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
+          <t>NOP56</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>NOP56 ribonucleoprotein</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606907</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>PPP2R2B</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>protein phosphatase 2 regulatory subunit Bbeta</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606910</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>RFC1</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>replication factor C subunit 1</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606912</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
           <t>TBP</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
+      <c r="C331" t="inlineStr">
         <is>
           <t>TATA-box binding protein</t>
         </is>
       </c>
-      <c r="D328" t="inlineStr">
+      <c r="D331" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>Ataxia_Superpanel</t>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:12.606915</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Ataxia_Superpanel.xlsx
+++ b/data/panelapp/au/Ataxia_Superpanel.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606023</t>
+          <t>2021-10-05 14:33:13.550389</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606035</t>
+          <t>2021-10-05 14:33:13.550397</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606038</t>
+          <t>2021-10-05 14:33:13.550400</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606041</t>
+          <t>2021-10-05 14:33:13.550403</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606044</t>
+          <t>2021-10-05 14:33:13.550406</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606046</t>
+          <t>2021-10-05 14:33:13.550409</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606049</t>
+          <t>2021-10-05 14:33:13.550412</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606052</t>
+          <t>2021-10-05 14:33:13.550414</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606054</t>
+          <t>2021-10-05 14:33:13.550417</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606057</t>
+          <t>2021-10-05 14:33:13.550420</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606059</t>
+          <t>2021-10-05 14:33:13.550423</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606062</t>
+          <t>2021-10-05 14:33:13.550425</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606065</t>
+          <t>2021-10-05 14:33:13.550428</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606067</t>
+          <t>2021-10-05 14:33:13.550431</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606070</t>
+          <t>2021-10-05 14:33:13.550433</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606072</t>
+          <t>2021-10-05 14:33:13.550436</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606075</t>
+          <t>2021-10-05 14:33:13.550439</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606078</t>
+          <t>2021-10-05 14:33:13.550442</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606081</t>
+          <t>2021-10-05 14:33:13.550445</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606083</t>
+          <t>2021-10-05 14:33:13.550447</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606086</t>
+          <t>2021-10-05 14:33:13.550450</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606089</t>
+          <t>2021-10-05 14:33:13.550453</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606091</t>
+          <t>2021-10-05 14:33:13.550455</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606094</t>
+          <t>2021-10-05 14:33:13.550458</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606097</t>
+          <t>2021-10-05 14:33:13.550461</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606100</t>
+          <t>2021-10-05 14:33:13.550464</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606103</t>
+          <t>2021-10-05 14:33:13.550467</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606105</t>
+          <t>2021-10-05 14:33:13.550469</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606108</t>
+          <t>2021-10-05 14:33:13.550472</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606110</t>
+          <t>2021-10-05 14:33:13.550475</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606113</t>
+          <t>2021-10-05 14:33:13.550478</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606116</t>
+          <t>2021-10-05 14:33:13.550481</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606119</t>
+          <t>2021-10-05 14:33:13.550483</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606122</t>
+          <t>2021-10-05 14:33:13.550486</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606126</t>
+          <t>2021-10-05 14:33:13.550489</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606129</t>
+          <t>2021-10-05 14:33:13.550491</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606132</t>
+          <t>2021-10-05 14:33:13.550494</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606135</t>
+          <t>2021-10-05 14:33:13.550497</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606137</t>
+          <t>2021-10-05 14:33:13.550499</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606140</t>
+          <t>2021-10-05 14:33:13.550502</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606143</t>
+          <t>2021-10-05 14:33:13.550505</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606146</t>
+          <t>2021-10-05 14:33:13.550508</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606149</t>
+          <t>2021-10-05 14:33:13.550510</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606152</t>
+          <t>2021-10-05 14:33:13.550513</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606154</t>
+          <t>2021-10-05 14:33:13.550515</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606157</t>
+          <t>2021-10-05 14:33:13.550518</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606159</t>
+          <t>2021-10-05 14:33:13.550521</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606162</t>
+          <t>2021-10-05 14:33:13.550523</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606165</t>
+          <t>2021-10-05 14:33:13.550526</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606167</t>
+          <t>2021-10-05 14:33:13.550528</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606170</t>
+          <t>2021-10-05 14:33:13.550531</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606173</t>
+          <t>2021-10-05 14:33:13.550534</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606175</t>
+          <t>2021-10-05 14:33:13.550537</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606178</t>
+          <t>2021-10-05 14:33:13.550539</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606181</t>
+          <t>2021-10-05 14:33:13.550542</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606183</t>
+          <t>2021-10-05 14:33:13.550545</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606186</t>
+          <t>2021-10-05 14:33:13.550548</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606188</t>
+          <t>2021-10-05 14:33:13.550551</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606191</t>
+          <t>2021-10-05 14:33:13.550553</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606194</t>
+          <t>2021-10-05 14:33:13.550556</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606196</t>
+          <t>2021-10-05 14:33:13.550559</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606199</t>
+          <t>2021-10-05 14:33:13.550561</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606202</t>
+          <t>2021-10-05 14:33:13.550564</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606204</t>
+          <t>2021-10-05 14:33:13.550567</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606208</t>
+          <t>2021-10-05 14:33:13.550570</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606210</t>
+          <t>2021-10-05 14:33:13.550574</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606213</t>
+          <t>2021-10-05 14:33:13.550576</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606216</t>
+          <t>2021-10-05 14:33:13.550579</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606218</t>
+          <t>2021-10-05 14:33:13.550582</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606221</t>
+          <t>2021-10-05 14:33:13.550584</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606224</t>
+          <t>2021-10-05 14:33:13.550587</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606226</t>
+          <t>2021-10-05 14:33:13.550589</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606229</t>
+          <t>2021-10-05 14:33:13.550592</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606231</t>
+          <t>2021-10-05 14:33:13.550595</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606234</t>
+          <t>2021-10-05 14:33:13.550597</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606236</t>
+          <t>2021-10-05 14:33:13.550600</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606241</t>
+          <t>2021-10-05 14:33:13.550604</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606244</t>
+          <t>2021-10-05 14:33:13.550607</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606247</t>
+          <t>2021-10-05 14:33:13.550610</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606250</t>
+          <t>2021-10-05 14:33:13.550613</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606252</t>
+          <t>2021-10-05 14:33:13.550616</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606255</t>
+          <t>2021-10-05 14:33:13.550618</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606258</t>
+          <t>2021-10-05 14:33:13.550621</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606260</t>
+          <t>2021-10-05 14:33:13.550624</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606263</t>
+          <t>2021-10-05 14:33:13.550626</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606265</t>
+          <t>2021-10-05 14:33:13.550629</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606268</t>
+          <t>2021-10-05 14:33:13.550631</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606270</t>
+          <t>2021-10-05 14:33:13.550634</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606273</t>
+          <t>2021-10-05 14:33:13.550637</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606276</t>
+          <t>2021-10-05 14:33:13.550640</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606278</t>
+          <t>2021-10-05 14:33:13.550642</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606281</t>
+          <t>2021-10-05 14:33:13.550645</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606285</t>
+          <t>2021-10-05 14:33:13.550649</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606288</t>
+          <t>2021-10-05 14:33:13.550652</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606290</t>
+          <t>2021-10-05 14:33:13.550655</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606293</t>
+          <t>2021-10-05 14:33:13.550657</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606296</t>
+          <t>2021-10-05 14:33:13.550660</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606298</t>
+          <t>2021-10-05 14:33:13.550663</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606301</t>
+          <t>2021-10-05 14:33:13.550665</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606303</t>
+          <t>2021-10-05 14:33:13.550668</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606306</t>
+          <t>2021-10-05 14:33:13.550670</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606309</t>
+          <t>2021-10-05 14:33:13.550673</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606311</t>
+          <t>2021-10-05 14:33:13.550676</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606314</t>
+          <t>2021-10-05 14:33:13.550679</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606316</t>
+          <t>2021-10-05 14:33:13.550681</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606319</t>
+          <t>2021-10-05 14:33:13.550684</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606321</t>
+          <t>2021-10-05 14:33:13.550686</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606324</t>
+          <t>2021-10-05 14:33:13.550689</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606329</t>
+          <t>2021-10-05 14:33:13.550693</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606332</t>
+          <t>2021-10-05 14:33:13.550697</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606334</t>
+          <t>2021-10-05 14:33:13.550699</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606337</t>
+          <t>2021-10-05 14:33:13.550702</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606339</t>
+          <t>2021-10-05 14:33:13.550704</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606342</t>
+          <t>2021-10-05 14:33:13.550707</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606345</t>
+          <t>2021-10-05 14:33:13.550709</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606347</t>
+          <t>2021-10-05 14:33:13.550712</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606350</t>
+          <t>2021-10-05 14:33:13.550714</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606352</t>
+          <t>2021-10-05 14:33:13.550717</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606355</t>
+          <t>2021-10-05 14:33:13.550719</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606357</t>
+          <t>2021-10-05 14:33:13.550722</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606360</t>
+          <t>2021-10-05 14:33:13.550725</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606363</t>
+          <t>2021-10-05 14:33:13.550727</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606365</t>
+          <t>2021-10-05 14:33:13.550730</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606368</t>
+          <t>2021-10-05 14:33:13.550733</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606370</t>
+          <t>2021-10-05 14:33:13.550735</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606373</t>
+          <t>2021-10-05 14:33:13.550738</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606376</t>
+          <t>2021-10-05 14:33:13.550740</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606378</t>
+          <t>2021-10-05 14:33:13.550743</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606383</t>
+          <t>2021-10-05 14:33:13.550747</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606386</t>
+          <t>2021-10-05 14:33:13.550750</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606389</t>
+          <t>2021-10-05 14:33:13.550753</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606391</t>
+          <t>2021-10-05 14:33:13.550756</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606394</t>
+          <t>2021-10-05 14:33:13.550759</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606397</t>
+          <t>2021-10-05 14:33:13.550762</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606399</t>
+          <t>2021-10-05 14:33:13.550764</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606402</t>
+          <t>2021-10-05 14:33:13.550767</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606404</t>
+          <t>2021-10-05 14:33:13.550769</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606407</t>
+          <t>2021-10-05 14:33:13.550772</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606410</t>
+          <t>2021-10-05 14:33:13.550774</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606412</t>
+          <t>2021-10-05 14:33:13.550777</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606415</t>
+          <t>2021-10-05 14:33:13.550780</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606417</t>
+          <t>2021-10-05 14:33:13.550782</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606420</t>
+          <t>2021-10-05 14:33:13.550785</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606422</t>
+          <t>2021-10-05 14:33:13.550788</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606425</t>
+          <t>2021-10-05 14:33:13.550791</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606428</t>
+          <t>2021-10-05 14:33:13.550793</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606430</t>
+          <t>2021-10-05 14:33:13.550796</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606433</t>
+          <t>2021-10-05 14:33:13.550799</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606436</t>
+          <t>2021-10-05 14:33:13.550801</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606438</t>
+          <t>2021-10-05 14:33:13.550804</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606441</t>
+          <t>2021-10-05 14:33:13.550807</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606443</t>
+          <t>2021-10-05 14:33:13.550809</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606446</t>
+          <t>2021-10-05 14:33:13.550812</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606448</t>
+          <t>2021-10-05 14:33:13.550815</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606451</t>
+          <t>2021-10-05 14:33:13.550817</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606454</t>
+          <t>2021-10-05 14:33:13.550820</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606456</t>
+          <t>2021-10-05 14:33:13.550822</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606459</t>
+          <t>2021-10-05 14:33:13.550825</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606462</t>
+          <t>2021-10-05 14:33:13.550827</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606464</t>
+          <t>2021-10-05 14:33:13.550830</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606467</t>
+          <t>2021-10-05 14:33:13.550833</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606470</t>
+          <t>2021-10-05 14:33:13.550835</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606472</t>
+          <t>2021-10-05 14:33:13.550838</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606475</t>
+          <t>2021-10-05 14:33:13.550841</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606478</t>
+          <t>2021-10-05 14:33:13.550843</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606480</t>
+          <t>2021-10-05 14:33:13.550846</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606483</t>
+          <t>2021-10-05 14:33:13.550848</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606485</t>
+          <t>2021-10-05 14:33:13.550851</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606488</t>
+          <t>2021-10-05 14:33:13.550853</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606491</t>
+          <t>2021-10-05 14:33:13.550856</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606493</t>
+          <t>2021-10-05 14:33:13.550859</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606496</t>
+          <t>2021-10-05 14:33:13.550861</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606500</t>
+          <t>2021-10-05 14:33:13.550865</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606503</t>
+          <t>2021-10-05 14:33:13.550868</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606506</t>
+          <t>2021-10-05 14:33:13.550871</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606508</t>
+          <t>2021-10-05 14:33:13.550873</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606511</t>
+          <t>2021-10-05 14:33:13.550876</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606513</t>
+          <t>2021-10-05 14:33:13.550879</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606516</t>
+          <t>2021-10-05 14:33:13.550881</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606519</t>
+          <t>2021-10-05 14:33:13.550884</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606521</t>
+          <t>2021-10-05 14:33:13.550887</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606524</t>
+          <t>2021-10-05 14:33:13.550889</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606527</t>
+          <t>2021-10-05 14:33:13.550892</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606529</t>
+          <t>2021-10-05 14:33:13.550894</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606532</t>
+          <t>2021-10-05 14:33:13.550897</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606534</t>
+          <t>2021-10-05 14:33:13.550900</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606537</t>
+          <t>2021-10-05 14:33:13.550902</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606540</t>
+          <t>2021-10-05 14:33:13.550905</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606542</t>
+          <t>2021-10-05 14:33:13.550907</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606545</t>
+          <t>2021-10-05 14:33:13.550910</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606547</t>
+          <t>2021-10-05 14:33:13.550912</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606550</t>
+          <t>2021-10-05 14:33:13.550915</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606552</t>
+          <t>2021-10-05 14:33:13.550918</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606555</t>
+          <t>2021-10-05 14:33:13.550920</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606558</t>
+          <t>2021-10-05 14:33:13.550923</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606561</t>
+          <t>2021-10-05 14:33:13.550925</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606563</t>
+          <t>2021-10-05 14:33:13.550928</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606566</t>
+          <t>2021-10-05 14:33:13.550931</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606568</t>
+          <t>2021-10-05 14:33:13.550933</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606571</t>
+          <t>2021-10-05 14:33:13.550936</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606574</t>
+          <t>2021-10-05 14:33:13.550939</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606576</t>
+          <t>2021-10-05 14:33:13.550942</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606579</t>
+          <t>2021-10-05 14:33:13.550945</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606582</t>
+          <t>2021-10-05 14:33:13.550947</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606584</t>
+          <t>2021-10-05 14:33:13.550950</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606587</t>
+          <t>2021-10-05 14:33:13.550952</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606590</t>
+          <t>2021-10-05 14:33:13.550955</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606592</t>
+          <t>2021-10-05 14:33:13.550958</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606595</t>
+          <t>2021-10-05 14:33:13.550960</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606598</t>
+          <t>2021-10-05 14:33:13.550963</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606600</t>
+          <t>2021-10-05 14:33:13.550965</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606603</t>
+          <t>2021-10-05 14:33:13.550968</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606605</t>
+          <t>2021-10-05 14:33:13.550971</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606608</t>
+          <t>2021-10-05 14:33:13.550973</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606611</t>
+          <t>2021-10-05 14:33:13.550976</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606613</t>
+          <t>2021-10-05 14:33:13.550978</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606616</t>
+          <t>2021-10-05 14:33:13.550981</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606618</t>
+          <t>2021-10-05 14:33:13.550984</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606621</t>
+          <t>2021-10-05 14:33:13.550986</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606623</t>
+          <t>2021-10-05 14:33:13.550989</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606626</t>
+          <t>2021-10-05 14:33:13.550991</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606629</t>
+          <t>2021-10-05 14:33:13.550994</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606631</t>
+          <t>2021-10-05 14:33:13.550997</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606634</t>
+          <t>2021-10-05 14:33:13.550999</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606637</t>
+          <t>2021-10-05 14:33:13.551002</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606639</t>
+          <t>2021-10-05 14:33:13.551005</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606642</t>
+          <t>2021-10-05 14:33:13.551007</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606644</t>
+          <t>2021-10-05 14:33:13.551010</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606647</t>
+          <t>2021-10-05 14:33:13.551012</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606650</t>
+          <t>2021-10-05 14:33:13.551015</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606653</t>
+          <t>2021-10-05 14:33:13.551017</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606655</t>
+          <t>2021-10-05 14:33:13.551020</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606659</t>
+          <t>2021-10-05 14:33:13.551024</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606663</t>
+          <t>2021-10-05 14:33:13.551027</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606665</t>
+          <t>2021-10-05 14:33:13.551030</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606668</t>
+          <t>2021-10-05 14:33:13.551033</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606670</t>
+          <t>2021-10-05 14:33:13.551035</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606673</t>
+          <t>2021-10-05 14:33:13.551038</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606675</t>
+          <t>2021-10-05 14:33:13.551041</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606678</t>
+          <t>2021-10-05 14:33:13.551044</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606681</t>
+          <t>2021-10-05 14:33:13.551046</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606683</t>
+          <t>2021-10-05 14:33:13.551049</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606686</t>
+          <t>2021-10-05 14:33:13.551052</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606688</t>
+          <t>2021-10-05 14:33:13.551054</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606691</t>
+          <t>2021-10-05 14:33:13.551057</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606693</t>
+          <t>2021-10-05 14:33:13.551060</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606696</t>
+          <t>2021-10-05 14:33:13.551062</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606699</t>
+          <t>2021-10-05 14:33:13.551065</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606701</t>
+          <t>2021-10-05 14:33:13.551067</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606704</t>
+          <t>2021-10-05 14:33:13.551070</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606706</t>
+          <t>2021-10-05 14:33:13.551073</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606709</t>
+          <t>2021-10-05 14:33:13.551076</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606712</t>
+          <t>2021-10-05 14:33:13.551078</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606714</t>
+          <t>2021-10-05 14:33:13.551081</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606717</t>
+          <t>2021-10-05 14:33:13.551084</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606719</t>
+          <t>2021-10-05 14:33:13.551086</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606722</t>
+          <t>2021-10-05 14:33:13.551089</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606725</t>
+          <t>2021-10-05 14:33:13.551092</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606727</t>
+          <t>2021-10-05 14:33:13.551094</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606730</t>
+          <t>2021-10-05 14:33:13.551097</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606733</t>
+          <t>2021-10-05 14:33:13.551099</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606735</t>
+          <t>2021-10-05 14:33:13.551102</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606738</t>
+          <t>2021-10-05 14:33:13.551105</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606741</t>
+          <t>2021-10-05 14:33:13.551107</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606743</t>
+          <t>2021-10-05 14:33:13.551110</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606746</t>
+          <t>2021-10-05 14:33:13.551112</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606748</t>
+          <t>2021-10-05 14:33:13.551115</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606751</t>
+          <t>2021-10-05 14:33:13.551118</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606754</t>
+          <t>2021-10-05 14:33:13.551121</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606757</t>
+          <t>2021-10-05 14:33:13.551123</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606759</t>
+          <t>2021-10-05 14:33:13.551126</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606762</t>
+          <t>2021-10-05 14:33:13.551129</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606764</t>
+          <t>2021-10-05 14:33:13.551132</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606767</t>
+          <t>2021-10-05 14:33:13.551134</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606770</t>
+          <t>2021-10-05 14:33:13.551137</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606772</t>
+          <t>2021-10-05 14:33:13.551140</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606775</t>
+          <t>2021-10-05 14:33:13.551142</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8797,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606777</t>
+          <t>2021-10-05 14:33:13.551145</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8827,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606780</t>
+          <t>2021-10-05 14:33:13.551147</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606782</t>
+          <t>2021-10-05 14:33:13.551150</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8887,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606785</t>
+          <t>2021-10-05 14:33:13.551153</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606788</t>
+          <t>2021-10-05 14:33:13.551155</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8947,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606790</t>
+          <t>2021-10-05 14:33:13.551158</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8977,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606793</t>
+          <t>2021-10-05 14:33:13.551160</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606795</t>
+          <t>2021-10-05 14:33:13.551163</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9037,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606798</t>
+          <t>2021-10-05 14:33:13.551166</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9067,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606801</t>
+          <t>2021-10-05 14:33:13.551169</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606803</t>
+          <t>2021-10-05 14:33:13.551171</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606806</t>
+          <t>2021-10-05 14:33:13.551174</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9157,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606808</t>
+          <t>2021-10-05 14:33:13.551176</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606811</t>
+          <t>2021-10-05 14:33:13.551179</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9217,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606814</t>
+          <t>2021-10-05 14:33:13.551182</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9247,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606816</t>
+          <t>2021-10-05 14:33:13.551184</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9277,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606819</t>
+          <t>2021-10-05 14:33:13.551187</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9307,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606821</t>
+          <t>2021-10-05 14:33:13.551190</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9337,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606824</t>
+          <t>2021-10-05 14:33:13.551192</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9367,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606826</t>
+          <t>2021-10-05 14:33:13.551195</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9397,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606829</t>
+          <t>2021-10-05 14:33:13.551197</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9427,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606832</t>
+          <t>2021-10-05 14:33:13.551200</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9457,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606834</t>
+          <t>2021-10-05 14:33:13.551203</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9487,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606837</t>
+          <t>2021-10-05 14:33:13.551205</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9517,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606839</t>
+          <t>2021-10-05 14:33:13.551208</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9547,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606842</t>
+          <t>2021-10-05 14:33:13.551210</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9577,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606845</t>
+          <t>2021-10-05 14:33:13.551213</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9607,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606847</t>
+          <t>2021-10-05 14:33:13.551216</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9637,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606850</t>
+          <t>2021-10-05 14:33:13.551218</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606852</t>
+          <t>2021-10-05 14:33:13.551221</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606855</t>
+          <t>2021-10-05 14:33:13.551224</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606859</t>
+          <t>2021-10-05 14:33:13.551228</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9757,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606862</t>
+          <t>2021-10-05 14:33:13.551231</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9787,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606865</t>
+          <t>2021-10-05 14:33:13.551233</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9817,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606868</t>
+          <t>2021-10-05 14:33:13.551236</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606871</t>
+          <t>2021-10-05 14:33:13.551238</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9877,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606873</t>
+          <t>2021-10-05 14:33:13.551241</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9907,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606876</t>
+          <t>2021-10-05 14:33:13.551244</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606879</t>
+          <t>2021-10-05 14:33:13.551246</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9967,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606881</t>
+          <t>2021-10-05 14:33:13.551249</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9997,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606884</t>
+          <t>2021-10-05 14:33:13.551251</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10027,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606887</t>
+          <t>2021-10-05 14:33:13.551254</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10057,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606889</t>
+          <t>2021-10-05 14:33:13.551257</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10087,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606892</t>
+          <t>2021-10-05 14:33:13.551259</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10117,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606894</t>
+          <t>2021-10-05 14:33:13.551262</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10147,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606897</t>
+          <t>2021-10-05 14:33:13.551264</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606899</t>
+          <t>2021-10-05 14:33:13.551267</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606902</t>
+          <t>2021-10-05 14:33:13.551269</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606904</t>
+          <t>2021-10-05 14:33:13.551272</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606907</t>
+          <t>2021-10-05 14:33:13.551274</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10297,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606910</t>
+          <t>2021-10-05 14:33:13.551277</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10327,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606912</t>
+          <t>2021-10-05 14:33:13.551279</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10357,91 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:12.606915</t>
+          <t>2021-10-05 14:33:13.551282</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ataxia_Superpanel</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>289</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.447</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T07:11:15.873935Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:33:13.547046</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/289/?format=json</t>
         </is>
       </c>
     </row>
